--- a/workspace/XmlProject/WebContent/WEB-INF/Book1.xlsx
+++ b/workspace/XmlProject/WebContent/WEB-INF/Book1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kissco_N03\git\XmlProject\workspace\XmlProject\WebContent\WEB-INF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="28035" windowHeight="12570"/>
   </bookViews>
@@ -16,56 +21,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="5">
   <si>
-    <t>ccccc</t>
+    <t>aaaaa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aaaaa</t>
+    <t>vvvvvv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbbbbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssssss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vvvvvv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,27 +93,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -144,7 +160,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,9 +192,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,6 +227,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -385,23 +403,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -412,12 +590,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -425,12 +603,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
